--- a/Tabela de noticias.xlsx
+++ b/Tabela de noticias.xlsx
@@ -453,108 +453,120 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lula descarta revogar reforma do Ensino Médio: 'Vamos aperfeiçoar'</t>
+          <t>Compras ficarão mais caras? Meus produtos irão parar em Curitiba?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/economia/blog/ana-flor/post/2023/04/06/nao-vamos-revogar-suspendemos-e-vamos-discutir-diz-lula-sobre-novo-ensino-medio.ghtml</t>
+          <t>https://g1.globo.com/economia/noticia/2023/04/13/imposto-sobre-encomendas-gringas-compras-ficarao-mais-caras-meus-produtos-irao-parar-em-curitiba-veja-perguntas-e-respostas.ghtml</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chuva pode superar 100 mm em 24 horas no litoral de SP no feriado</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>Jack Teixeira, suspeito de vazar dados secretos nos EUA, é preso</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ele tem 21 anos e integra a Guarda Nacional. Arquivos expostos tratam da guerra na Ucrânia.</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/sp/sao-paulo/noticia/2023/04/06/chuva-pode-superar-100-mm-em-24-horas-no-litoral-de-sp-no-feriado-da-pascoa.ghtml</t>
+          <t>https://g1.globo.com/mundo/noticia/2023/04/13/guarda-nacional-dos-eua-tido-como-suspeito-de-vazar-documentos-do-pentagono-sera-preso.ghtml</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saída de dinheiro da poupança supera R$ 50 bi no ano e bate recorde</t>
+          <t>Dólar opera mais um dia em queda e chega a R$ 4,90</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/economia/noticia/2023/04/06/retirada-de-recursos-da-poupanca-supera-r-50-bilhoes-no-1o-trimestre-e-bate-recorde-revela-bc.ghtml</t>
+          <t>https://g1.globo.com/economia/noticia/2023/04/13/dolar.ghtml</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Crianças mortas em ataque a creche são enterradas em SC</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>VÍDEO: empresário é desmentido em CPI ao dizer que não participou de ato</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Joveci Xavier é dono de supermercados e suspeito de financiar acampamento de golpistas.</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/sc/santa-catarina/noticia/2023/04/06/criancas-vitimas-de-ataque-a-creche-sao-enterradas-em-blumenau.ghtml</t>
+          <t>https://g1.globo.com/df/distrito-federal/noticia/2023/04/13/cpi-dos-atos-antidemocraticos-suspeito-de-financiar-acampamento-bolsonarista-no-df-nega-participacao-em-ataques.ghtml</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Filho de duas mães, menino morto foi adotado há um ano</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>Para líder tibetano, beijo de Dalai Lama foi 'comportamento inocente de avô'</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Líder espiritual foi muito criticado no mundo inteiro por imagens que mostram beijo forçado. </t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/sc/santa-catarina/noticia/2023/04/06/filho-de-duas-mae-menino-de-4-anos-e-um-dos-mortos-no-ataque-a-creche-em-blumenau.ghtml</t>
+          <t>https://g1.globo.com/mundo/noticia/2023/04/13/caso-dalai-lama-beijo-foi-comportamento-inocente-de-avo-diz-lider-tibetano-no-exilio.ghtml</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Grupo Globo muda política sobre cobertura de massacres</t>
+          <t>Lula entra em lista de 100 mais influentes do mundo em 2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/economia/midia-e-marketing/noticia/2023/04/05/grupo-globo-muda-politica-sobre-cobertura-de-massacres.ghtml</t>
+          <t>https://g1.globo.com/mundo/noticia/2023/04/13/lula-entra-na-lista-de-100-mais-influentes-da-revista-time.ghtml</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A Noite: 1º arranha-céu da América Latina pode virar hotel; veja fotos</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Prédio inaugurado em 1929 foi comprado pela prefeitura após 4 leilões fracassados.</t>
-        </is>
-      </c>
+          <t>Manifestantes invadem empresas de luxo em Paris, como Louis Vuitton</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/rj/rio-de-janeiro/noticia/2023/04/06/comprado-pela-prefeitura-edificio-a-noite-pode-virar-hotel-ou-condominio-veja-como-esta-por-dentro.ghtml</t>
+          <t>https://oglobo.globo.com/mundo/noticia/2023/04/manifestantes-invadem-empresas-de-luxo-como-louis-vuitton-em-novos-protestos-em-paris.ghtml</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VÍDEO: supertelescópio mostra detalhes inéditos dos anéis de Urano</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>Condenada por matar filho também assassinou 1º marido, diz polícia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Caso era tratado como suicídio; ambos foram estrangulados com varal.</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/ciencia/noticia/2023/04/06/james-webb-nova-imagem-do-supertelescopio-mostra-detalhes-dos-aneis-de-urano.ghtml</t>
+          <t>https://g1.globo.com/rs/rio-grande-do-sul/noticia/2023/04/13/policia-descarta-suicidio-e-conclui-que-alexandra-dougokenski-matou-o-primeiro-marido-em-farroupilha.ghtml</t>
         </is>
       </c>
     </row>
